--- a/biology/Botanique/Pleurochloridellales/Pleurochloridellales.xlsx
+++ b/biology/Botanique/Pleurochloridellales/Pleurochloridellales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pleurochloridellales sont un ordre d’algues de la classe des Phaeothamniophyceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pleurochloridellales sont un ordre d’algues de la classe des Phaeothamniophyceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 mars 2022)[2] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 mars 2022) 
 Pleurochloridellaceae (H.Ettl) Bailey et al., 1998</t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AlgaeBase                                           (17 mars 2022)[1] ne référence ni l'ordre des Pleurochloridellales, ni la famille des Pleurochloridellaceae, mais classe dans l’ordre des Mischococcales notamment la famille des Pleurochloridaceae laquelle renferme les genres Pleurochloris et Pleurochloridella, genre type des Pleurochloridellaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AlgaeBase                                           (17 mars 2022) ne référence ni l'ordre des Pleurochloridellales, ni la famille des Pleurochloridellaceae, mais classe dans l’ordre des Mischococcales notamment la famille des Pleurochloridaceae laquelle renferme les genres Pleurochloris et Pleurochloridella, genre type des Pleurochloridellaceae.
 </t>
         </is>
       </c>
